--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/f10RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/f10RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\Angle\f10RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715552B0-681A-4FB0-84EB-51E958E4AFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEF66F0-5201-443E-99BD-D0EBE4DDEF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{3F1112C3-6130-4EC8-8C68-7BA1FF49BCBD}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{057EBF5B-6B00-45AD-AFD2-8A687FF6EEAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6B40A7-B2B0-4F81-9E74-4B9B53846374}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF1B90A-AAFC-4C8A-9CB4-327789AB175A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
